--- a/pubmed_validation_sheets/17370653 DISNET VALIDATION.xlsx
+++ b/pubmed_validation_sheets/17370653 DISNET VALIDATION.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/DISNET/CURRENT/OK_DISNET_VALIDATION_PUBMED_(100)/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{03C87C69-D67D-F946-A953-6E23983EDE98}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="460" windowWidth="20480" windowHeight="15460" xr2:uid="{6E52D1B4-F9CB-4441-9081-5C2868523BBB}"/>
+    <workbookView xWindow="39080" yWindow="260" windowWidth="20480" windowHeight="20820"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="91">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -291,18 +288,28 @@
   </si>
   <si>
     <t>FPCONTEXT</t>
+  </si>
+  <si>
+    <t>trigger</t>
+  </si>
+  <si>
+    <t>Precipitating factor</t>
+  </si>
+  <si>
+    <t>[clna]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,16 +377,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,44 +531,44 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,7 +699,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -744,7 +751,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -938,21 +945,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F743750-5540-5B42-BCD9-474CEE4AA1C7}">
-  <dimension ref="A1:I38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
@@ -964,7 +971,7 @@
     <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="128" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="128" customHeight="1" thickBot="1">
       <c r="B1" s="19" t="s">
         <v>14</v>
       </c>
@@ -976,7 +983,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,7 +1001,7 @@
       <c r="H2" s="23"/>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +1027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1049,7 +1056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1078,7 +1085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1107,7 +1114,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1136,7 +1143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1165,7 +1172,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1194,7 +1201,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1223,7 +1230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1252,7 +1259,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1281,7 +1288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1310,7 +1317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1339,7 +1346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1368,7 +1375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1397,7 +1404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1426,7 +1433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1455,7 +1462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1484,7 +1491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1513,7 +1520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1542,7 +1549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1571,7 +1578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1600,7 +1607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1629,7 +1636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1658,7 +1665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1687,7 +1694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1716,7 +1723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1745,7 +1752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1774,7 +1781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1803,7 +1810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1832,7 +1839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1861,7 +1868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1890,7 +1897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1919,39 +1926,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="10" t="s">
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="B37" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -1969,9 +1985,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="B38" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -1986,6 +2002,26 @@
         <v>12</v>
       </c>
       <c r="I38" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="B39" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1996,6 +2032,10 @@
     <mergeCell ref="F2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>